--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfsf10-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfsf10-Tnfrsf11b.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.77467133333334</v>
+        <v>10.23696233333333</v>
       </c>
       <c r="H2">
-        <v>47.32401400000001</v>
+        <v>30.710887</v>
       </c>
       <c r="I2">
-        <v>0.6679291979451996</v>
+        <v>0.7155854078011842</v>
       </c>
       <c r="J2">
-        <v>0.6679291979451996</v>
+        <v>0.7155854078011841</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.07580833333333332</v>
+        <v>0.2262196666666666</v>
       </c>
       <c r="N2">
-        <v>0.227425</v>
+        <v>0.6786589999999999</v>
       </c>
       <c r="O2">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="P2">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="Q2">
-        <v>1.195851542661111</v>
+        <v>2.315802206725888</v>
       </c>
       <c r="R2">
-        <v>10.76266388395</v>
+        <v>20.842219860533</v>
       </c>
       <c r="S2">
-        <v>0.00692012542847384</v>
+        <v>0.02250644343147981</v>
       </c>
       <c r="T2">
-        <v>0.006920125428473841</v>
+        <v>0.02250644343147981</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.77467133333334</v>
+        <v>10.23696233333333</v>
       </c>
       <c r="H3">
-        <v>47.32401400000001</v>
+        <v>30.710887</v>
       </c>
       <c r="I3">
-        <v>0.6679291979451996</v>
+        <v>0.7155854078011842</v>
       </c>
       <c r="J3">
-        <v>0.6679291979451996</v>
+        <v>0.7155854078011841</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>20.79327</v>
       </c>
       <c r="O3">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901603</v>
       </c>
       <c r="P3">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901604</v>
       </c>
       <c r="Q3">
-        <v>109.3356667317533</v>
+        <v>70.95330725894333</v>
       </c>
       <c r="R3">
-        <v>984.0210005857801</v>
+        <v>638.57976533049</v>
       </c>
       <c r="S3">
-        <v>0.6327010507557316</v>
+        <v>0.6895695113606189</v>
       </c>
       <c r="T3">
-        <v>0.6327010507557316</v>
+        <v>0.6895695113606188</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.77467133333334</v>
+        <v>10.23696233333333</v>
       </c>
       <c r="H4">
-        <v>47.32401400000001</v>
+        <v>30.710887</v>
       </c>
       <c r="I4">
-        <v>0.6679291979451996</v>
+        <v>0.7155854078011842</v>
       </c>
       <c r="J4">
-        <v>0.6679291979451996</v>
+        <v>0.7155854078011841</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.3101076666666667</v>
+        <v>0.03527466666666667</v>
       </c>
       <c r="N4">
-        <v>0.930323</v>
+        <v>0.105824</v>
       </c>
       <c r="O4">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994002</v>
       </c>
       <c r="P4">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994003</v>
       </c>
       <c r="Q4">
-        <v>4.891846519613557</v>
+        <v>0.3611054339875556</v>
       </c>
       <c r="R4">
-        <v>44.02661867652201</v>
+        <v>3.249948905888</v>
       </c>
       <c r="S4">
-        <v>0.02830802176099404</v>
+        <v>0.003509453009085446</v>
       </c>
       <c r="T4">
-        <v>0.02830802176099404</v>
+        <v>0.003509453009085446</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,43 +732,43 @@
         <v>1.503082</v>
       </c>
       <c r="H5">
-        <v>4.509245999999999</v>
+        <v>4.509246</v>
       </c>
       <c r="I5">
-        <v>0.06364331360644088</v>
+        <v>0.1050686239634127</v>
       </c>
       <c r="J5">
-        <v>0.06364331360644088</v>
+        <v>0.1050686239634127</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.07580833333333332</v>
+        <v>0.2262196666666666</v>
       </c>
       <c r="N5">
-        <v>0.227425</v>
+        <v>0.6786589999999999</v>
       </c>
       <c r="O5">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="P5">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="Q5">
-        <v>0.1139461412833333</v>
+        <v>0.3400267090126666</v>
       </c>
       <c r="R5">
-        <v>1.02551527155</v>
+        <v>3.060240381114</v>
       </c>
       <c r="S5">
-        <v>0.0006593808358657814</v>
+        <v>0.00330459651059986</v>
       </c>
       <c r="T5">
-        <v>0.0006593808358657815</v>
+        <v>0.00330459651059986</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,13 +794,13 @@
         <v>1.503082</v>
       </c>
       <c r="H6">
-        <v>4.509245999999999</v>
+        <v>4.509246</v>
       </c>
       <c r="I6">
-        <v>0.06364331360644088</v>
+        <v>0.1050686239634127</v>
       </c>
       <c r="J6">
-        <v>0.06364331360644088</v>
+        <v>0.1050686239634127</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -815,22 +815,22 @@
         <v>20.79327</v>
       </c>
       <c r="O6">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901603</v>
       </c>
       <c r="P6">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901604</v>
       </c>
       <c r="Q6">
         <v>10.41799661938</v>
       </c>
       <c r="R6">
-        <v>93.76196957441998</v>
+        <v>93.76196957442001</v>
       </c>
       <c r="S6">
-        <v>0.06028661648008301</v>
+        <v>0.101248738300031</v>
       </c>
       <c r="T6">
-        <v>0.06028661648008301</v>
+        <v>0.101248738300031</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,43 +856,43 @@
         <v>1.503082</v>
       </c>
       <c r="H7">
-        <v>4.509245999999999</v>
+        <v>4.509246</v>
       </c>
       <c r="I7">
-        <v>0.06364331360644088</v>
+        <v>0.1050686239634127</v>
       </c>
       <c r="J7">
-        <v>0.06364331360644088</v>
+        <v>0.1050686239634127</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.3101076666666667</v>
+        <v>0.03527466666666667</v>
       </c>
       <c r="N7">
-        <v>0.930323</v>
+        <v>0.105824</v>
       </c>
       <c r="O7">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994002</v>
       </c>
       <c r="P7">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994003</v>
       </c>
       <c r="Q7">
-        <v>0.4661172518286666</v>
+        <v>0.05302071652266667</v>
       </c>
       <c r="R7">
-        <v>4.195055266458</v>
+        <v>0.477186448704</v>
       </c>
       <c r="S7">
-        <v>0.002697316290492081</v>
+        <v>0.0005152891527817647</v>
       </c>
       <c r="T7">
-        <v>0.002697316290492081</v>
+        <v>0.0005152891527817647</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.782582666666666</v>
+        <v>1.544659666666667</v>
       </c>
       <c r="H8">
-        <v>8.347747999999999</v>
+        <v>4.633979</v>
       </c>
       <c r="I8">
-        <v>0.1178197738317092</v>
+        <v>0.107974991163789</v>
       </c>
       <c r="J8">
-        <v>0.1178197738317093</v>
+        <v>0.107974991163789</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.07580833333333332</v>
+        <v>0.2262196666666666</v>
       </c>
       <c r="N8">
-        <v>0.227425</v>
+        <v>0.6786589999999999</v>
       </c>
       <c r="O8">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="P8">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="Q8">
-        <v>0.2109429543222222</v>
+        <v>0.3494323949067777</v>
       </c>
       <c r="R8">
-        <v>1.8984865889</v>
+        <v>3.144891554161</v>
       </c>
       <c r="S8">
-        <v>0.001220679699851573</v>
+        <v>0.003396006967371714</v>
       </c>
       <c r="T8">
-        <v>0.001220679699851573</v>
+        <v>0.003396006967371714</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.782582666666666</v>
+        <v>1.544659666666667</v>
       </c>
       <c r="H9">
-        <v>8.347747999999999</v>
+        <v>4.633979</v>
       </c>
       <c r="I9">
-        <v>0.1178197738317092</v>
+        <v>0.107974991163789</v>
       </c>
       <c r="J9">
-        <v>0.1178197738317093</v>
+        <v>0.107974991163789</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>20.79327</v>
       </c>
       <c r="O9">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901603</v>
       </c>
       <c r="P9">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901604</v>
       </c>
       <c r="Q9">
-        <v>19.28633089510667</v>
+        <v>10.70617516903667</v>
       </c>
       <c r="R9">
-        <v>173.57697805596</v>
+        <v>96.35557652132999</v>
       </c>
       <c r="S9">
-        <v>0.111605683555162</v>
+        <v>0.1040494413165393</v>
       </c>
       <c r="T9">
-        <v>0.111605683555162</v>
+        <v>0.1040494413165393</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.782582666666666</v>
+        <v>1.544659666666667</v>
       </c>
       <c r="H10">
-        <v>8.347747999999999</v>
+        <v>4.633979</v>
       </c>
       <c r="I10">
-        <v>0.1178197738317092</v>
+        <v>0.107974991163789</v>
       </c>
       <c r="J10">
-        <v>0.1178197738317093</v>
+        <v>0.107974991163789</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.3101076666666667</v>
+        <v>0.03527466666666667</v>
       </c>
       <c r="N10">
-        <v>0.930323</v>
+        <v>0.105824</v>
       </c>
       <c r="O10">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994002</v>
       </c>
       <c r="P10">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994003</v>
       </c>
       <c r="Q10">
-        <v>0.862900218067111</v>
+        <v>0.05448735485511112</v>
       </c>
       <c r="R10">
-        <v>7.766101962603999</v>
+        <v>0.490386193696</v>
       </c>
       <c r="S10">
-        <v>0.004993410576695679</v>
+        <v>0.0005295428798780305</v>
       </c>
       <c r="T10">
-        <v>0.004993410576695679</v>
+        <v>0.0005295428798780305</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.2551576666666667</v>
+        <v>0.04013633333333334</v>
       </c>
       <c r="H11">
-        <v>0.765473</v>
+        <v>0.120409</v>
       </c>
       <c r="I11">
-        <v>0.01080385461255898</v>
+        <v>0.002805614939351403</v>
       </c>
       <c r="J11">
-        <v>0.01080385461255898</v>
+        <v>0.002805614939351403</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.07580833333333332</v>
+        <v>0.2262196666666666</v>
       </c>
       <c r="N11">
-        <v>0.227425</v>
+        <v>0.6786589999999999</v>
       </c>
       <c r="O11">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="P11">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="Q11">
-        <v>0.01934307744722222</v>
+        <v>0.009079627947888889</v>
       </c>
       <c r="R11">
-        <v>0.174087697025</v>
+        <v>0.081716651531</v>
       </c>
       <c r="S11">
-        <v>0.0001119340631610445</v>
+        <v>8.824161761075325E-05</v>
       </c>
       <c r="T11">
-        <v>0.0001119340631610445</v>
+        <v>8.824161761075324E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2551576666666667</v>
+        <v>0.04013633333333334</v>
       </c>
       <c r="H12">
-        <v>0.765473</v>
+        <v>0.120409</v>
       </c>
       <c r="I12">
-        <v>0.01080385461255898</v>
+        <v>0.002805614939351403</v>
       </c>
       <c r="J12">
-        <v>0.01080385461255898</v>
+        <v>0.002805614939351403</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1187,22 +1187,22 @@
         <v>20.79327</v>
       </c>
       <c r="O12">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901603</v>
       </c>
       <c r="P12">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901604</v>
       </c>
       <c r="Q12">
-        <v>1.768520751856667</v>
+        <v>0.2781885386033334</v>
       </c>
       <c r="R12">
-        <v>15.91668676671</v>
+        <v>2.50369684743</v>
       </c>
       <c r="S12">
-        <v>0.01023403406619612</v>
+        <v>0.002703613715013206</v>
       </c>
       <c r="T12">
-        <v>0.01023403406619612</v>
+        <v>0.002703613715013206</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.2551576666666667</v>
+        <v>0.04013633333333334</v>
       </c>
       <c r="H13">
-        <v>0.765473</v>
+        <v>0.120409</v>
       </c>
       <c r="I13">
-        <v>0.01080385461255898</v>
+        <v>0.002805614939351403</v>
       </c>
       <c r="J13">
-        <v>0.01080385461255898</v>
+        <v>0.002805614939351403</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.3101076666666667</v>
+        <v>0.03527466666666667</v>
       </c>
       <c r="N13">
-        <v>0.930323</v>
+        <v>0.105824</v>
       </c>
       <c r="O13">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994002</v>
       </c>
       <c r="P13">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994003</v>
       </c>
       <c r="Q13">
-        <v>0.07912634864211111</v>
+        <v>0.001415795779555556</v>
       </c>
       <c r="R13">
-        <v>0.712137137779</v>
+        <v>0.012742162016</v>
       </c>
       <c r="S13">
-        <v>0.0004578864832018134</v>
+        <v>1.37596067274439E-05</v>
       </c>
       <c r="T13">
-        <v>0.0004578864832018134</v>
+        <v>1.375960672744391E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3953666666666667</v>
+        <v>0.5501683333333333</v>
       </c>
       <c r="H14">
-        <v>1.1861</v>
+        <v>1.650505</v>
       </c>
       <c r="I14">
-        <v>0.01674056688603805</v>
+        <v>0.03845793491744127</v>
       </c>
       <c r="J14">
-        <v>0.01674056688603805</v>
+        <v>0.03845793491744127</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.07580833333333332</v>
+        <v>0.2262196666666666</v>
       </c>
       <c r="N14">
-        <v>0.227425</v>
+        <v>0.6786589999999999</v>
       </c>
       <c r="O14">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="P14">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="Q14">
-        <v>0.02997208805555555</v>
+        <v>0.1244588969772222</v>
       </c>
       <c r="R14">
-        <v>0.2697487925</v>
+        <v>1.120130072795</v>
       </c>
       <c r="S14">
-        <v>0.0001734417704025026</v>
+        <v>0.001209570971228365</v>
       </c>
       <c r="T14">
-        <v>0.0001734417704025027</v>
+        <v>0.001209570971228365</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3953666666666667</v>
+        <v>0.5501683333333333</v>
       </c>
       <c r="H15">
-        <v>1.1861</v>
+        <v>1.650505</v>
       </c>
       <c r="I15">
-        <v>0.01674056688603805</v>
+        <v>0.03845793491744127</v>
       </c>
       <c r="J15">
-        <v>0.01674056688603805</v>
+        <v>0.03845793491744127</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>20.79327</v>
       </c>
       <c r="O15">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901603</v>
       </c>
       <c r="P15">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901604</v>
       </c>
       <c r="Q15">
-        <v>2.740321949666667</v>
+        <v>3.813266233483333</v>
       </c>
       <c r="R15">
-        <v>24.662897547</v>
+        <v>34.31939610134999</v>
       </c>
       <c r="S15">
-        <v>0.01585763025725952</v>
+        <v>0.03705975429326604</v>
       </c>
       <c r="T15">
-        <v>0.01585763025725952</v>
+        <v>0.03705975429326604</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3953666666666667</v>
+        <v>0.5501683333333333</v>
       </c>
       <c r="H16">
-        <v>1.1861</v>
+        <v>1.650505</v>
       </c>
       <c r="I16">
-        <v>0.01674056688603805</v>
+        <v>0.03845793491744127</v>
       </c>
       <c r="J16">
-        <v>0.01674056688603805</v>
+        <v>0.03845793491744127</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.3101076666666667</v>
+        <v>0.03527466666666667</v>
       </c>
       <c r="N16">
-        <v>0.930323</v>
+        <v>0.105824</v>
       </c>
       <c r="O16">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994002</v>
       </c>
       <c r="P16">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994003</v>
       </c>
       <c r="Q16">
-        <v>0.1226062344777778</v>
+        <v>0.01940700456888889</v>
       </c>
       <c r="R16">
-        <v>1.1034561103</v>
+        <v>0.17466304112</v>
       </c>
       <c r="S16">
-        <v>0.0007094948583760251</v>
+        <v>0.000188609652946871</v>
       </c>
       <c r="T16">
-        <v>0.0007094948583760252</v>
+        <v>0.0001886096529468711</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>2.906420333333333</v>
+        <v>0.4307083333333333</v>
       </c>
       <c r="H17">
-        <v>8.719260999999999</v>
+        <v>1.292125</v>
       </c>
       <c r="I17">
-        <v>0.1230632931180533</v>
+        <v>0.03010742721482141</v>
       </c>
       <c r="J17">
-        <v>0.1230632931180533</v>
+        <v>0.03010742721482141</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.07580833333333332</v>
+        <v>0.2262196666666666</v>
       </c>
       <c r="N17">
-        <v>0.227425</v>
+        <v>0.6786589999999999</v>
       </c>
       <c r="O17">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="P17">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="Q17">
-        <v>0.2203308814361111</v>
+        <v>0.0974346955972222</v>
       </c>
       <c r="R17">
-        <v>1.982977932925</v>
+        <v>0.8769122603749998</v>
       </c>
       <c r="S17">
-        <v>0.001275005534475588</v>
+        <v>0.0009469325395551373</v>
       </c>
       <c r="T17">
-        <v>0.001275005534475589</v>
+        <v>0.0009469325395551373</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>2.906420333333333</v>
+        <v>0.4307083333333333</v>
       </c>
       <c r="H18">
-        <v>8.719260999999999</v>
+        <v>1.292125</v>
       </c>
       <c r="I18">
-        <v>0.1230632931180533</v>
+        <v>0.03010742721482141</v>
       </c>
       <c r="J18">
-        <v>0.1230632931180533</v>
+        <v>0.03010742721482141</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,22 +1559,22 @@
         <v>20.79327</v>
       </c>
       <c r="O18">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901603</v>
       </c>
       <c r="P18">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901604</v>
       </c>
       <c r="Q18">
-        <v>20.14466090816333</v>
+        <v>2.985278222083333</v>
       </c>
       <c r="R18">
-        <v>181.30194817347</v>
+        <v>26.86750399875</v>
       </c>
       <c r="S18">
-        <v>0.116572647377576</v>
+        <v>0.02901283850469183</v>
       </c>
       <c r="T18">
-        <v>0.116572647377576</v>
+        <v>0.02901283850469183</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>2.906420333333333</v>
+        <v>0.4307083333333333</v>
       </c>
       <c r="H19">
-        <v>8.719260999999999</v>
+        <v>1.292125</v>
       </c>
       <c r="I19">
-        <v>0.1230632931180533</v>
+        <v>0.03010742721482141</v>
       </c>
       <c r="J19">
-        <v>0.1230632931180533</v>
+        <v>0.03010742721482141</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.3101076666666667</v>
+        <v>0.03527466666666667</v>
       </c>
       <c r="N19">
-        <v>0.930323</v>
+        <v>0.105824</v>
       </c>
       <c r="O19">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994002</v>
       </c>
       <c r="P19">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994003</v>
       </c>
       <c r="Q19">
-        <v>0.9013032279225555</v>
+        <v>0.01519309288888889</v>
       </c>
       <c r="R19">
-        <v>8.111729051303</v>
+        <v>0.136737836</v>
       </c>
       <c r="S19">
-        <v>0.005215640206001684</v>
+        <v>0.0001476561705744459</v>
       </c>
       <c r="T19">
-        <v>0.005215640206001684</v>
+        <v>0.0001476561705744459</v>
       </c>
     </row>
   </sheetData>
